--- a/docs/assets/disciplinas/LOQ4079.xlsx
+++ b/docs/assets/disciplinas/LOQ4079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir o aluno na engenharia das reações químicas, através dos conceitos fundamentais da cinética química aplicada a reatores químicos ideais.</t>
+    <t>6310316 - Liana Alvares Rodrigues</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6310316 - Liana Alvares Rodrigues</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Introdução a cinética. 2. Reações a volume constante. 3. Reações a volume variável. 4. Modelos ideais de reatores químicos isotérmicos. 5. Análise de dados cinéticos em reatores químicos isotérmicos</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,18 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. INTRODUÇÃO A CINÉTICA
-Tipos de Reações Químicas. Lei de velocidade e seus principais parâmetros. Influência da temperatura sobre a taxa da reação. Ativação das reações químicas Equação de Arrhenius. Energia de ativação. Conversão. Concentração e sua variação numa transformação química. (4 horas)
-2. REAÇÕES A VOLUME CONSTANTE
-Reações irreversíveis de ordem um. Reações irreversíveis de ordem dois. Reações irreversíveis de ordem três. Reações irreversíveis de ordem qualquer. (8 horas)
-3. REAÇÕES A VOLUME VARIÁVEL
-Conceitos. Fração de conversão volumétrica. Reações a volume variável de ordem um e dois. (2 horas)
-4. MODELOS IDEAIS DE REATORES QUÍMICOS ISOTÉRMICOS: 
-Equações fundamentais de projeto de reatores. Reator tanque descontínuo (BSTR). Reator tanque de mistura contínuo (CSTR). Reator tubular de fluxo pistonado (PFR). Comparação de desempenho de reatores CSTR e PFR. Reatores CSTR em cascata. Associação mista de reatores em série: CSTR e PFR (8 horas)
-5. ANÁLISE DE DADOS CINÉTICOS EM REATORES QUÍMICOS ISOTÉRMICOS
-Balanço de massa e coleta de dados em reatores ideais isotérmicos: batelada (BSTR), reator tanque de mistura contínuo (CSTR) e Reator tubular (PFR) (8 horas)</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,30 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Duas provas escritas (P1 e P2) e trabalhos relacionados à disciplina (TRAB).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média da Primeira Avaliação = (I)  Prova P1=30%; (II)  Prova P2=60% e (III)  Trabalhos =10%</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Será a média aritmética da nota do aluno na primeira avaliação e da nota do aluo numa prova escrita na recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>FOGLER, H. S. Elementos de engenharia das reações químicas. 3.ed. Rio de Janeiro: LTC Editora, 2002.
-LEVENSPIEL, O. Chemical Reaction Engineering. 3rd. ed. New York: John Wiley &amp; Sons, 1998.
-HILL, C.G. An Introduction to chemical engineering kinetics and reactor design. New York: John Wiley&amp;Sons, 1977.
-SMITH, J.M. Chemical engineering kinetics. 3rd. ed New York: McGraw-Hill,1981.
-DENBIGH, K. ; TURNER, R. Introduction to chemical Reaction Design. Cambridge: Cambridge University Press, 1970.
-FROMENT, G.F. ; BISCHOFF, K.B. Chemical reactor analysis and design. 2nd Ed. New York: John Wiley &amp; Sons, 1990.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -501,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4079.xlsx
+++ b/docs/assets/disciplinas/LOQ4079.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir o aluno na engenharia das reações químicas, através dos conceitos fundamentais da cinética química aplicada a reatores químicos ideais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6310316 - Liana Alvares Rodrigues</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Introdução a cinética. 2. Reações a volume constante. 3. Reações a volume variável. 4. Modelos ideais de reatores químicos isotérmicos. 5. Análise de dados cinéticos em reatores químicos isotérmicos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,18 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. INTRODUÇÃO A CINÉTICA
+Tipos de Reações Químicas. Lei de velocidade e seus principais parâmetros. Influência da temperatura sobre a taxa da reação. Ativação das reações químicas Equação de Arrhenius. Energia de ativação. Conversão. Concentração e sua variação numa transformação química. (4 horas)
+2. REAÇÕES A VOLUME CONSTANTE
+Reações irreversíveis de ordem um. Reações irreversíveis de ordem dois. Reações irreversíveis de ordem três. Reações irreversíveis de ordem qualquer. (8 horas)
+3. REAÇÕES A VOLUME VARIÁVEL
+Conceitos. Fração de conversão volumétrica. Reações a volume variável de ordem um e dois. (2 horas)
+4. MODELOS IDEAIS DE REATORES QUÍMICOS ISOTÉRMICOS: 
+Equações fundamentais de projeto de reatores. Reator tanque descontínuo (BSTR). Reator tanque de mistura contínuo (CSTR). Reator tubular de fluxo pistonado (PFR). Comparação de desempenho de reatores CSTR e PFR. Reatores CSTR em cascata. Associação mista de reatores em série: CSTR e PFR (8 horas)
+5. ANÁLISE DE DADOS CINÉTICOS EM REATORES QUÍMICOS ISOTÉRMICOS
+Balanço de massa e coleta de dados em reatores ideais isotérmicos: batelada (BSTR), reator tanque de mistura contínuo (CSTR) e Reator tubular (PFR) (8 horas)</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +115,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Duas provas escritas (P1 e P2) e trabalhos relacionados à disciplina (TRAB).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas (P1 e P2) e trabalhos relacionados à disciplina (TRAB).</t>
+    <t>Média da Primeira Avaliação = (I)  Prova P1=30%; (II)  Prova P2=60% e (III)  Trabalhos =10%</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média da Primeira Avaliação = (I)  Prova P1=30%; (II)  Prova P2=60% e (III)  Trabalhos =10%</t>
+    <t>Será a média aritmética da nota do aluno na primeira avaliação e da nota do aluo numa prova escrita na recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Será a média aritmética da nota do aluno na primeira avaliação e da nota do aluo numa prova escrita na recuperação.</t>
+    <t>FOGLER, H. S. Elementos de engenharia das reações químicas. 3.ed. Rio de Janeiro: LTC Editora, 2002.
+LEVENSPIEL, O. Chemical Reaction Engineering. 3rd. ed. New York: John Wiley &amp; Sons, 1998.
+HILL, C.G. An Introduction to chemical engineering kinetics and reactor design. New York: John Wiley&amp;Sons, 1977.
+SMITH, J.M. Chemical engineering kinetics. 3rd. ed New York: McGraw-Hill,1981.
+DENBIGH, K. ; TURNER, R. Introduction to chemical Reaction Design. Cambridge: Cambridge University Press, 1970.
+FROMENT, G.F. ; BISCHOFF, K.B. Chemical reactor analysis and design. 2nd Ed. New York: John Wiley &amp; Sons, 1990.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +626,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
